--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -121,18 +121,18 @@
     <t>support</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
@@ -148,13 +148,13 @@
     <t>save</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>alert</t>
@@ -1510,25 +1510,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6956521739130435</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="L22">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1536,25 +1536,25 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6904761904761905</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L23">
+        <v>61</v>
+      </c>
+      <c r="M23">
+        <v>65</v>
+      </c>
+      <c r="N23">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
         <v>29</v>
-      </c>
-      <c r="M23">
-        <v>30</v>
-      </c>
-      <c r="N23">
-        <v>0.97</v>
-      </c>
-      <c r="O23">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1562,25 +1562,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6777777777777778</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6764705882352942</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N25">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1744,25 +1744,25 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5975609756097561</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L31">
-        <v>196</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1770,25 +1770,25 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5897435897435898</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="N32">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O32">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1796,25 +1796,25 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.582089552238806</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="N33">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="10:17">
